--- a/flows/CRAK_fund_flow_data.xlsx
+++ b/flows/CRAK_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2152"/>
+  <dimension ref="A1:B2159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21955,6 +21955,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2158" t="n">
+        <v>1.7995</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2159" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
